--- a/Wifi bootloader prelim CPD 4.xlsx
+++ b/Wifi bootloader prelim CPD 4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neil\Dropbox (Mernok Elektronik)\Software\WIFI app\WIFI Config App\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neil\Dropbox (Mernok Elektronik)\Software\Booyco HMI Utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5933A00B-CF06-4B33-988E-E105D47D9F6B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AB7F78-325C-474E-A135-CE39F42BC825}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="840" windowWidth="24840" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -737,7 +737,7 @@
   <dimension ref="A1:AF11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Wifi bootloader prelim CPD 4.xlsx
+++ b/Wifi bootloader prelim CPD 4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neil\Dropbox (Mernok Elektronik)\Software\Booyco HMI Utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AB7F78-325C-474E-A135-CE39F42BC825}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50D113B-85EC-4315-9630-AE957C5CA73D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="840" windowWidth="24840" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -736,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Wifi bootloader prelim CPD 4.xlsx
+++ b/Wifi bootloader prelim CPD 4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neil\Dropbox (Mernok Elektronik)\Software\Booyco HMI Utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50D113B-85EC-4315-9630-AE957C5CA73D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEA48BA-8D6C-4DCF-98A9-4E1F8A2BC343}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="81">
   <si>
     <t>SOF1</t>
   </si>
@@ -256,13 +256,31 @@
   </si>
   <si>
     <t>[25..519]</t>
+  </si>
+  <si>
+    <t>Bootloader</t>
+  </si>
+  <si>
+    <t>Parameter Configure</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Request from software to go into paramater mode</t>
+  </si>
+  <si>
+    <t>Message to indicate that all packets have been received</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,8 +317,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,8 +355,26 @@
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -381,34 +432,124 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
@@ -417,10 +558,60 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Input" xfId="3" builtinId="20"/>
+    <cellStyle name="Linked Cell" xfId="4" builtinId="24"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -734,665 +925,1254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF11"/>
+  <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="105" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" customWidth="1"/>
-    <col min="16" max="16" width="10" customWidth="1"/>
-    <col min="17" max="18" width="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="6"/>
+    <col min="5" max="5" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" style="6" customWidth="1"/>
+    <col min="16" max="16" width="10" style="6" customWidth="1"/>
+    <col min="17" max="18" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="27" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="9.140625" style="6"/>
+    <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
     </row>
-    <row r="2" spans="1:32" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:32" s="12" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+    </row>
+    <row r="3" spans="1:32" s="1" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21">
         <v>0</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D3" s="21">
         <v>1</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E3" s="21">
         <v>2</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F3" s="21">
         <v>3</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G3" s="21">
         <v>4</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H3" s="21">
         <v>5</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I3" s="21">
         <v>6</v>
       </c>
-      <c r="J2" s="1">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="J3" s="8">
+        <v>7</v>
+      </c>
+      <c r="K3" s="8">
         <v>8</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L3" s="8">
         <v>9</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M3" s="8">
         <v>10</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N3" s="8">
         <v>11</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O3" s="8">
         <v>12</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P3" s="8">
         <v>13</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q3" s="8">
         <v>14</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R3" s="8">
         <v>15</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S3" s="8">
         <v>16</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T3" s="8">
         <v>17</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U3" s="8">
         <v>18</v>
       </c>
-      <c r="V2" s="1">
+      <c r="V3" s="8">
         <v>19</v>
       </c>
-      <c r="W2" s="1">
+      <c r="W3" s="8">
         <v>20</v>
       </c>
-      <c r="X2" s="1">
+      <c r="X3" s="8">
         <v>21</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Y3" s="8">
         <v>22</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="Z3" s="8">
         <v>23</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AA3" s="8">
         <v>24</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AB3" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AC3" s="8">
         <v>520</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AD3" s="8">
         <v>521</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AE3" s="8">
         <v>522</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="4">
-        <v>522</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2">
-        <v>0</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF3" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="AF3" s="8"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>522</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB4" s="2">
+      <c r="G4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="20">
         <v>0</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="Q4" s="20">
+        <v>0</v>
+      </c>
+      <c r="R4" s="20">
+        <v>0</v>
+      </c>
+      <c r="S4" s="20">
+        <v>0</v>
+      </c>
+      <c r="T4" s="20">
+        <v>0</v>
+      </c>
+      <c r="U4" s="20">
+        <v>0</v>
+      </c>
+      <c r="V4" s="20">
+        <v>0</v>
+      </c>
+      <c r="W4" s="20">
+        <v>0</v>
+      </c>
+      <c r="X4" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AD4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AE4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AF4" s="7" t="s">
-        <v>36</v>
+      <c r="AF4" s="19" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2">
+        <v>522</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="T5" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="U5" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="V5" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="W5" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="X5" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y5" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z5" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA5" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB5" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF5" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" s="10" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+    </row>
+    <row r="7" spans="1:32" s="1" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21">
+        <v>0</v>
+      </c>
+      <c r="D7" s="21">
+        <v>1</v>
+      </c>
+      <c r="E7" s="21">
+        <v>2</v>
+      </c>
+      <c r="F7" s="21">
+        <v>3</v>
+      </c>
+      <c r="G7" s="21">
+        <v>4</v>
+      </c>
+      <c r="H7" s="21">
+        <v>5</v>
+      </c>
+      <c r="I7" s="21">
+        <v>6</v>
+      </c>
+      <c r="J7" s="8">
+        <v>7</v>
+      </c>
+      <c r="K7" s="8">
+        <v>8</v>
+      </c>
+      <c r="L7" s="8">
+        <v>9</v>
+      </c>
+      <c r="M7" s="8">
+        <v>10</v>
+      </c>
+      <c r="N7" s="8">
+        <v>11</v>
+      </c>
+      <c r="O7" s="8">
+        <v>12</v>
+      </c>
+      <c r="P7" s="8">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>14</v>
+      </c>
+      <c r="R7" s="8">
+        <v>15</v>
+      </c>
+      <c r="S7" s="8">
+        <v>16</v>
+      </c>
+      <c r="T7" s="8">
+        <v>17</v>
+      </c>
+      <c r="U7" s="8">
+        <v>18</v>
+      </c>
+      <c r="V7" s="8">
+        <v>19</v>
+      </c>
+      <c r="W7" s="8">
+        <v>20</v>
+      </c>
+      <c r="X7" s="8">
+        <v>21</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>22</v>
+      </c>
+      <c r="Z7" s="8">
         <v>23</v>
       </c>
-      <c r="B5" s="4">
-        <f>COUNTA(C5:I5)</f>
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="AA7" s="8">
         <v>24</v>
       </c>
-      <c r="B6" s="4">
-        <f>COUNTA(C6:I6)</f>
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
-        <f>COUNTA(C7:J7)</f>
-        <v>8</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="AB7" s="9"/>
+      <c r="AB7" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC7" s="8">
+        <v>520</v>
+      </c>
+      <c r="AD7" s="8">
+        <v>521</v>
+      </c>
+      <c r="AE7" s="8">
+        <v>522</v>
+      </c>
+      <c r="AF7" s="8"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="4">
-        <v>522</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2">
+        <f>COUNTA(C8:I8)</f>
+        <v>7</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC8" s="2" t="s">
+      <c r="E8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AE8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AF8" s="7" t="s">
+      <c r="J8" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="4">
-        <f>COUNTA(C9:K9)</f>
+        <v>24</v>
+      </c>
+      <c r="B9" s="2">
+        <f>COUNTA(C9:I9)</f>
+        <v>7</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="I9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="J9" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="4">
-        <f>COUNTA(C10:K10)</f>
+      <c r="B10" s="2">
+        <f>COUNTA(C10:J10)</f>
+        <v>8</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="5" t="s">
+      <c r="F10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="I10" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="J10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="7" t="s">
+      <c r="K10" s="24" t="s">
         <v>36</v>
       </c>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B11" s="4">
-        <f>COUNTA(C11:I11)</f>
-        <v>7</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2">
+        <v>522</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="R11" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="S11" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="T11" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="U11" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="V11" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="W11" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="X11" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y11" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z11" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA11" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB11" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC11" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD11" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF11" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2">
+        <f>COUNTA(C12:L12)</f>
+        <v>10</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2">
+        <f>COUNTA(C13:K13)</f>
+        <v>9</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <f>COUNTA(C14:I14)</f>
+        <v>7</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J14" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" s="10" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+    </row>
+    <row r="17" spans="1:32" s="1" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21">
+        <v>0</v>
+      </c>
+      <c r="D17" s="21">
+        <v>1</v>
+      </c>
+      <c r="E17" s="21">
+        <v>2</v>
+      </c>
+      <c r="F17" s="21">
+        <v>3</v>
+      </c>
+      <c r="G17" s="21">
+        <v>4</v>
+      </c>
+      <c r="H17" s="21">
+        <v>5</v>
+      </c>
+      <c r="I17" s="21">
+        <v>6</v>
+      </c>
+      <c r="J17" s="8">
+        <v>7</v>
+      </c>
+      <c r="K17" s="8">
+        <v>8</v>
+      </c>
+      <c r="L17" s="8">
+        <v>9</v>
+      </c>
+      <c r="M17" s="8">
+        <v>10</v>
+      </c>
+      <c r="N17" s="8">
+        <v>11</v>
+      </c>
+      <c r="O17" s="8">
+        <v>12</v>
+      </c>
+      <c r="P17" s="8">
+        <v>13</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>14</v>
+      </c>
+      <c r="R17" s="8">
+        <v>15</v>
+      </c>
+      <c r="S17" s="8">
+        <v>16</v>
+      </c>
+      <c r="T17" s="8">
+        <v>17</v>
+      </c>
+      <c r="U17" s="8">
+        <v>18</v>
+      </c>
+      <c r="V17" s="8">
+        <v>19</v>
+      </c>
+      <c r="W17" s="8">
+        <v>20</v>
+      </c>
+      <c r="X17" s="8">
+        <v>21</v>
+      </c>
+      <c r="Y17" s="8">
+        <v>22</v>
+      </c>
+      <c r="Z17" s="8">
+        <v>23</v>
+      </c>
+      <c r="AA17" s="8">
+        <v>24</v>
+      </c>
+      <c r="AB17" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC17" s="8">
+        <v>520</v>
+      </c>
+      <c r="AD17" s="8">
+        <v>521</v>
+      </c>
+      <c r="AE17" s="8">
+        <v>522</v>
+      </c>
+      <c r="AF17" s="8"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="2">
+        <f>COUNTA(C18:I18)</f>
+        <v>7</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" ref="B19:B23" si="0">COUNTA(C19:I19)</f>
+        <v>7</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="2">
+        <v>522</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="R20" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="S20" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="T20" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="U20" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="V20" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="W20" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="X20" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y20" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z20" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA20" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB20" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC20" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD20" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE20" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF20" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2">
+        <f>COUNTA(C21:L21)</f>
+        <v>10</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>36</v>
       </c>
     </row>
